--- a/vijay/SMALL ROOMS SOLUTION COMPARISON.xlsx
+++ b/vijay/SMALL ROOMS SOLUTION COMPARISON.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="SMALL ROOM SOLUTION COMPARISON" sheetId="1" r:id="rId1"/>
+    <sheet name="WEBCAM COMPARISON" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
   <si>
     <t>Logitech Meetup</t>
   </si>
@@ -133,6 +133,39 @@
   </si>
   <si>
     <t>THERE ARE 8 MEEMS MICROPHONE IS AVAILABLE</t>
+  </si>
+  <si>
+    <t>LOGITECH C930</t>
+  </si>
+  <si>
+    <t>RAPOO C500</t>
+  </si>
+  <si>
+    <t>2-3 PEOPLE</t>
+  </si>
+  <si>
+    <t>4K RESOLUTION</t>
+  </si>
+  <si>
+    <t>4X DIGITAL ZOOM</t>
+  </si>
+  <si>
+    <t>90 DEGREE</t>
+  </si>
+  <si>
+    <t>DUAL OMNIDIRECTIONAL MIC IS AVAILABLE</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>RIGHT LIGHT IS AVAILABLE IT WILL CLEAR THE PICTURE</t>
+  </si>
+  <si>
+    <t>80 DEGREE</t>
+  </si>
+  <si>
+    <t>OMNIDIRECTIONAL MIC IS AVAILABLE</t>
   </si>
 </sst>
 </file>
@@ -492,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -679,13 +712,153 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="23.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/vijay/SMALL ROOMS SOLUTION COMPARISON.xlsx
+++ b/vijay/SMALL ROOMS SOLUTION COMPARISON.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="SMALL ROOM SOLUTION COMPARISON" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>Logitech Meetup</t>
   </si>
@@ -129,12 +129,6 @@
     <t>IT PROVIDES YOU 8X ZOOMING</t>
   </si>
   <si>
-    <t>IT CAN COVER UPTO 160 DEGREE BY USIB=NF REMOTE</t>
-  </si>
-  <si>
-    <t>THERE ARE 8 MEEMS MICROPHONE IS AVAILABLE</t>
-  </si>
-  <si>
     <t>LOGITECH C930</t>
   </si>
   <si>
@@ -166,6 +160,36 @@
   </si>
   <si>
     <t>OMNIDIRECTIONAL MIC IS AVAILABLE</t>
+  </si>
+  <si>
+    <t>AVER B342 PRO</t>
+  </si>
+  <si>
+    <t>92 DEGREE</t>
+  </si>
+  <si>
+    <t>THERE ARE 8 MEMS MICROPHONE IS AVAILABLE</t>
+  </si>
+  <si>
+    <t>THERE ARE 10 BEAM FORMING MICS ARE AVAILABLE</t>
+  </si>
+  <si>
+    <t>2 SPEAKERS ARE AVAILABLE</t>
+  </si>
+  <si>
+    <t>IT CAN COVER UPTO 160 DEGREE BY USING REMOTE</t>
+  </si>
+  <si>
+    <t>IT CAN COVER 180 DEGREE HORIZONTALLY &amp; 105 DEGREE VERTICALLY BY USING REMOTE</t>
+  </si>
+  <si>
+    <t>THERE ARE 2 MODES ARE AVAILABLE 1. AUDIO TRACKING 2.SMARTFRAMING</t>
+  </si>
+  <si>
+    <t>USB PORT</t>
+  </si>
+  <si>
+    <t>USB PORT IS AVAILABLE WITH THE HELP OF THAT PORT WE CAN USED OUR DISPLAY AS A SCREEN TOUCH DISPLAY</t>
   </si>
 </sst>
 </file>
@@ -523,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -534,9 +558,10 @@
     <col min="1" max="1" width="36.28515625" customWidth="1"/>
     <col min="2" max="2" width="79.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="86.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="101.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25">
+    <row r="1" spans="1:5" ht="23.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -549,8 +574,11 @@
       <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -563,8 +591,11 @@
       <c r="D2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="13.5" customHeight="1">
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.5" customHeight="1">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -577,8 +608,11 @@
       <c r="D3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="13.5" customHeight="1">
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.5" customHeight="1">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -591,8 +625,11 @@
       <c r="D4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25" customHeight="1">
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" customHeight="1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -606,7 +643,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -617,10 +654,13 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -633,8 +673,11 @@
       <c r="D7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -645,10 +688,13 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -661,8 +707,11 @@
       <c r="D9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -676,7 +725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -689,8 +738,11 @@
       <c r="D11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -702,6 +754,17 @@
       </c>
       <c r="D12" t="s">
         <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -714,7 +777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -729,10 +792,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -740,10 +803,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -751,10 +814,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -762,10 +825,10 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -773,10 +836,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -784,10 +847,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -795,10 +858,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -806,10 +869,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -817,10 +880,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -828,10 +891,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -839,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -850,10 +913,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
